--- a/data/pca/factorExposure/factorExposure_2013-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008140435217688195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001831081959862679</v>
+      </c>
+      <c r="C2">
+        <v>-0.03188311043843851</v>
+      </c>
+      <c r="D2">
+        <v>0.005773581745293424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003626507272836558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006329655084421972</v>
+      </c>
+      <c r="C4">
+        <v>-0.08413480662822977</v>
+      </c>
+      <c r="D4">
+        <v>0.07976825955653354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002466579125583489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01419709811662632</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131172109790653</v>
+      </c>
+      <c r="D6">
+        <v>0.03296267048045427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00211604207266208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005130088484360196</v>
+      </c>
+      <c r="C7">
+        <v>-0.0584783663735966</v>
+      </c>
+      <c r="D7">
+        <v>0.03289780061550201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007954020183446565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005796342525516667</v>
+      </c>
+      <c r="C8">
+        <v>-0.03823010760898668</v>
+      </c>
+      <c r="D8">
+        <v>0.04422626949164899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003433159140631214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004481332876141982</v>
+      </c>
+      <c r="C9">
+        <v>-0.07046062814284033</v>
+      </c>
+      <c r="D9">
+        <v>0.07124979307390672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002188630004092637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005473332210481868</v>
+      </c>
+      <c r="C10">
+        <v>-0.05855915549049438</v>
+      </c>
+      <c r="D10">
+        <v>-0.1980000713997511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002677083365828345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005797547776374559</v>
+      </c>
+      <c r="C11">
+        <v>-0.08059128548432415</v>
+      </c>
+      <c r="D11">
+        <v>0.06034984890670193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004684529951561964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004100665087565002</v>
+      </c>
+      <c r="C12">
+        <v>-0.0644192320284537</v>
+      </c>
+      <c r="D12">
+        <v>0.04751309581588673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002070258603830294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00883295926600612</v>
+      </c>
+      <c r="C13">
+        <v>-0.06716831786869498</v>
+      </c>
+      <c r="D13">
+        <v>0.0612855428650462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009705524117624392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001597785337149968</v>
+      </c>
+      <c r="C14">
+        <v>-0.04550942617820596</v>
+      </c>
+      <c r="D14">
+        <v>0.007417861332993308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007227737135953006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006051591287582633</v>
+      </c>
+      <c r="C15">
+        <v>-0.04217770790080234</v>
+      </c>
+      <c r="D15">
+        <v>0.02895873817566773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008888664252326349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005103600799490106</v>
+      </c>
+      <c r="C16">
+        <v>-0.06571128852841647</v>
+      </c>
+      <c r="D16">
+        <v>0.04733414587124023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8.288389309338173e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008915622377270548</v>
+      </c>
+      <c r="C20">
+        <v>-0.06544639843800749</v>
+      </c>
+      <c r="D20">
+        <v>0.04137931895637496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005734394658723883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01000835428874437</v>
+      </c>
+      <c r="C21">
+        <v>-0.02121957051426794</v>
+      </c>
+      <c r="D21">
+        <v>0.03976337151680293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01679314407511188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006769422362352788</v>
+      </c>
+      <c r="C22">
+        <v>-0.0935708082198214</v>
+      </c>
+      <c r="D22">
+        <v>0.1087374970503462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01709469226100524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006586033568873204</v>
+      </c>
+      <c r="C23">
+        <v>-0.0943910630069062</v>
+      </c>
+      <c r="D23">
+        <v>0.108768902935564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001352104035276175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.00549242311342179</v>
+      </c>
+      <c r="C24">
+        <v>-0.07672695889951667</v>
+      </c>
+      <c r="D24">
+        <v>0.06111588175224164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00388107226696511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003057703527298237</v>
+      </c>
+      <c r="C25">
+        <v>-0.07883213231507283</v>
+      </c>
+      <c r="D25">
+        <v>0.06639793122806568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004874939199175119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003677197152346397</v>
+      </c>
+      <c r="C26">
+        <v>-0.04163300567262447</v>
+      </c>
+      <c r="D26">
+        <v>0.02064489727988661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005763772636098469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008799282434332055</v>
+      </c>
+      <c r="C28">
+        <v>-0.1075068775528737</v>
+      </c>
+      <c r="D28">
+        <v>-0.3169746695645423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001017113682374479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003202824422162681</v>
+      </c>
+      <c r="C29">
+        <v>-0.04927999519318784</v>
+      </c>
+      <c r="D29">
+        <v>0.005662053114009507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003353852821841631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009566358730029961</v>
+      </c>
+      <c r="C30">
+        <v>-0.142575291653385</v>
+      </c>
+      <c r="D30">
+        <v>0.09105070896427522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001134159937712423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006268504920251787</v>
+      </c>
+      <c r="C31">
+        <v>-0.04470328889823207</v>
+      </c>
+      <c r="D31">
+        <v>0.03104856992189045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006344760855007735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004145944756055097</v>
+      </c>
+      <c r="C32">
+        <v>-0.04065354635028134</v>
+      </c>
+      <c r="D32">
+        <v>0.02105365363153254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002673143129506636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008369990413328919</v>
+      </c>
+      <c r="C33">
+        <v>-0.08542166036573295</v>
+      </c>
+      <c r="D33">
+        <v>0.06795900720003585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004300671219144583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003999761645593566</v>
+      </c>
+      <c r="C34">
+        <v>-0.05805457872041126</v>
+      </c>
+      <c r="D34">
+        <v>0.0542221883538129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001556667462078327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004925774795618265</v>
+      </c>
+      <c r="C35">
+        <v>-0.03984264799260864</v>
+      </c>
+      <c r="D35">
+        <v>0.01848879106696261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003647368283790418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001120158828929132</v>
+      </c>
+      <c r="C36">
+        <v>-0.02445080395086142</v>
+      </c>
+      <c r="D36">
+        <v>0.02116474050975207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002288326754235434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009503112344290347</v>
+      </c>
+      <c r="C38">
+        <v>-0.03512574937888887</v>
+      </c>
+      <c r="D38">
+        <v>0.01474480677484446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01192346270024211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005022488121747165</v>
+      </c>
+      <c r="C39">
+        <v>-0.1161175420892236</v>
+      </c>
+      <c r="D39">
+        <v>0.07285575797517174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01016567658142595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002767222016633021</v>
+      </c>
+      <c r="C40">
+        <v>-0.09126558913456348</v>
+      </c>
+      <c r="D40">
+        <v>0.007954321764439045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001211164727285667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007248892447154634</v>
+      </c>
+      <c r="C41">
+        <v>-0.03801047771496744</v>
+      </c>
+      <c r="D41">
+        <v>0.03419778855665441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002831731312482262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004049387286764638</v>
+      </c>
+      <c r="C43">
+        <v>-0.0534364287893884</v>
+      </c>
+      <c r="D43">
+        <v>0.02360796858444717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004214653674162377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003446390498101604</v>
+      </c>
+      <c r="C44">
+        <v>-0.1090884900636283</v>
+      </c>
+      <c r="D44">
+        <v>0.06874034914261265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009869371362402975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002232315532848258</v>
+      </c>
+      <c r="C46">
+        <v>-0.03368124244063112</v>
+      </c>
+      <c r="D46">
+        <v>0.0313757624820924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>1.118253213803729e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00270522743182</v>
+      </c>
+      <c r="C47">
+        <v>-0.03706964151841928</v>
+      </c>
+      <c r="D47">
+        <v>0.02267636777126436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003625483585155189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006605081797478198</v>
+      </c>
+      <c r="C48">
+        <v>-0.0303989152251925</v>
+      </c>
+      <c r="D48">
+        <v>0.03111438514313072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01208573618968291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01542702674042654</v>
+      </c>
+      <c r="C49">
+        <v>-0.1844992631818509</v>
+      </c>
+      <c r="D49">
+        <v>0.01296159568696391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001666967568521989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003629768578758763</v>
+      </c>
+      <c r="C50">
+        <v>-0.04329341220706683</v>
+      </c>
+      <c r="D50">
+        <v>0.0347816310193952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007258064222304251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004485374347689905</v>
+      </c>
+      <c r="C51">
+        <v>-0.0266365327356148</v>
+      </c>
+      <c r="D51">
+        <v>0.02068224247740883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008168794027994576</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02089149356055826</v>
+      </c>
+      <c r="C53">
+        <v>-0.1685719596728437</v>
+      </c>
+      <c r="D53">
+        <v>0.02959697902250704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001234342381735422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008690299454402918</v>
+      </c>
+      <c r="C54">
+        <v>-0.05388019598367495</v>
+      </c>
+      <c r="D54">
+        <v>0.04526791818082911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003831165150918957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009448652546390122</v>
+      </c>
+      <c r="C55">
+        <v>-0.1074295339141882</v>
+      </c>
+      <c r="D55">
+        <v>0.03900907712004641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002757641646619465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02009620105847379</v>
+      </c>
+      <c r="C56">
+        <v>-0.1736331366221429</v>
+      </c>
+      <c r="D56">
+        <v>0.02912943057334327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00714380153671676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01982063963579334</v>
+      </c>
+      <c r="C58">
+        <v>-0.112335351287195</v>
+      </c>
+      <c r="D58">
+        <v>0.05015319793505588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006962576845952697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009824014608591032</v>
+      </c>
+      <c r="C59">
+        <v>-0.1636952867130925</v>
+      </c>
+      <c r="D59">
+        <v>-0.3183270365458438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003976345408752058</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02393781889107922</v>
+      </c>
+      <c r="C60">
+        <v>-0.2213824174506028</v>
+      </c>
+      <c r="D60">
+        <v>0.0344206995350354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01356884166591822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001650383514967861</v>
+      </c>
+      <c r="C61">
+        <v>-0.09554070646819986</v>
+      </c>
+      <c r="D61">
+        <v>0.05813206399034418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637324963538695</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448159713741489</v>
+      </c>
+      <c r="C62">
+        <v>-0.0912409729640605</v>
+      </c>
+      <c r="D62">
+        <v>0.04727818396460699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008167434815855285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006315311516610366</v>
+      </c>
+      <c r="C63">
+        <v>-0.05519524540471345</v>
+      </c>
+      <c r="D63">
+        <v>0.02595628969913759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000497344900204955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01545238015278569</v>
+      </c>
+      <c r="C64">
+        <v>-0.1058817976428047</v>
+      </c>
+      <c r="D64">
+        <v>0.06038396195803519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002828011355222545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01798623637964208</v>
+      </c>
+      <c r="C65">
+        <v>-0.122947604172311</v>
+      </c>
+      <c r="D65">
+        <v>0.0175089412185876</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007694993525863147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01320271425158587</v>
+      </c>
+      <c r="C66">
+        <v>-0.160739861944731</v>
+      </c>
+      <c r="D66">
+        <v>0.1126126246516254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003542752948962834</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01569903434560889</v>
+      </c>
+      <c r="C67">
+        <v>-0.06596350189673425</v>
+      </c>
+      <c r="D67">
+        <v>0.02670322507157785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006491088656608287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006340285102381892</v>
+      </c>
+      <c r="C68">
+        <v>-0.08689288475255591</v>
+      </c>
+      <c r="D68">
+        <v>-0.2586337814245789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002306493250808983</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006215590400414981</v>
+      </c>
+      <c r="C69">
+        <v>-0.05034512940225989</v>
+      </c>
+      <c r="D69">
+        <v>0.03918603530765112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003477919433252934</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001912098135863532</v>
+      </c>
+      <c r="C70">
+        <v>-0.002718197217281951</v>
+      </c>
+      <c r="D70">
+        <v>0.002544402024156522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004459120131020513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00592339496682495</v>
+      </c>
+      <c r="C71">
+        <v>-0.0967243222641979</v>
+      </c>
+      <c r="D71">
+        <v>-0.3083990838645014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003909036501843519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01607905498865708</v>
+      </c>
+      <c r="C72">
+        <v>-0.1526169648652002</v>
+      </c>
+      <c r="D72">
+        <v>0.02187635319455165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01159799677857321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03094794015124811</v>
+      </c>
+      <c r="C73">
+        <v>-0.2798324492939192</v>
+      </c>
+      <c r="D73">
+        <v>0.05399428490270505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004657924063112447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002005561349268431</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048209725083442</v>
+      </c>
+      <c r="D74">
+        <v>0.03653419133475722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002610272319548228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01098204587778742</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244460340954016</v>
+      </c>
+      <c r="D75">
+        <v>0.02438629038093257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009173728160599139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177406856612767</v>
+      </c>
+      <c r="C76">
+        <v>-0.1476599484856279</v>
+      </c>
+      <c r="D76">
+        <v>0.06162625895216802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009070990013667426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02380190510312812</v>
+      </c>
+      <c r="C77">
+        <v>-0.1251249255798118</v>
+      </c>
+      <c r="D77">
+        <v>0.09071847363934499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002253539620260938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01481132184825187</v>
+      </c>
+      <c r="C78">
+        <v>-0.09695026265258598</v>
+      </c>
+      <c r="D78">
+        <v>0.06922738435781781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02283076483224407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03771642514077527</v>
+      </c>
+      <c r="C79">
+        <v>-0.1556156533228318</v>
+      </c>
+      <c r="D79">
+        <v>0.03518200021953172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006457714841845294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047747271428475</v>
+      </c>
+      <c r="C80">
+        <v>-0.04044298670444769</v>
+      </c>
+      <c r="D80">
+        <v>0.02874567478427037</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001195582266874131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01537923977529565</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268688385939583</v>
+      </c>
+      <c r="D81">
+        <v>0.04032291181159253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006047225728058616</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01984277611705001</v>
+      </c>
+      <c r="C82">
+        <v>-0.1406055917636</v>
+      </c>
+      <c r="D82">
+        <v>0.0397497435187916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008540039264204368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01005892590454241</v>
+      </c>
+      <c r="C83">
+        <v>-0.05638494247210121</v>
+      </c>
+      <c r="D83">
+        <v>0.05624191111818183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01305718809358062</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169508445603225</v>
+      </c>
+      <c r="C84">
+        <v>-0.03676536373968904</v>
+      </c>
+      <c r="D84">
+        <v>-0.01303740141797359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01393487382996486</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02825551523909899</v>
+      </c>
+      <c r="C85">
+        <v>-0.1235903557867938</v>
+      </c>
+      <c r="D85">
+        <v>0.04453074197930005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00189671935694831</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006108274055039255</v>
+      </c>
+      <c r="C86">
+        <v>-0.05148749311293647</v>
+      </c>
+      <c r="D86">
+        <v>0.02158445924439979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004448919103061097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01030378682586028</v>
+      </c>
+      <c r="C87">
+        <v>-0.1299389257392141</v>
+      </c>
+      <c r="D87">
+        <v>0.07266762489566543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01173491626189294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002779639659525091</v>
+      </c>
+      <c r="C88">
+        <v>-0.06629352074309498</v>
+      </c>
+      <c r="D88">
+        <v>0.0165906992887959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01413392325985241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001165123379698214</v>
+      </c>
+      <c r="C89">
+        <v>-0.1475662146387549</v>
+      </c>
+      <c r="D89">
+        <v>-0.337379162198272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002197607195371918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007146238121317096</v>
+      </c>
+      <c r="C90">
+        <v>-0.121805553759844</v>
+      </c>
+      <c r="D90">
+        <v>-0.3193411398248994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006713326702519663</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01045694469604756</v>
+      </c>
+      <c r="C91">
+        <v>-0.101310317953515</v>
+      </c>
+      <c r="D91">
+        <v>0.02013193604066296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007914556250759545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001085299129357126</v>
+      </c>
+      <c r="C92">
+        <v>-0.1364964046738692</v>
+      </c>
+      <c r="D92">
+        <v>-0.3270183905163853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003500190623903612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004939747873594621</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054241957521502</v>
+      </c>
+      <c r="D93">
+        <v>-0.3044906310648621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003357974731323881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02256910741705015</v>
+      </c>
+      <c r="C94">
+        <v>-0.1462661442845168</v>
+      </c>
+      <c r="D94">
+        <v>0.05512628061740738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00443692249738494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01663905283587102</v>
+      </c>
+      <c r="C95">
+        <v>-0.1280907800743097</v>
+      </c>
+      <c r="D95">
+        <v>0.05728584163983404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001883634528502988</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03614470206719041</v>
+      </c>
+      <c r="C97">
+        <v>-0.2129234802144018</v>
+      </c>
+      <c r="D97">
+        <v>-0.01379120265423489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003122883491525451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03675368343620745</v>
+      </c>
+      <c r="C98">
+        <v>-0.2490871429176872</v>
+      </c>
+      <c r="D98">
+        <v>0.0508678668543306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847609226742259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821495009246048</v>
+      </c>
+      <c r="C99">
+        <v>0.116720156325375</v>
+      </c>
+      <c r="D99">
+        <v>-0.0277935857965486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009208424354697495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003240456934825009</v>
+      </c>
+      <c r="C101">
+        <v>-0.04945641552553714</v>
+      </c>
+      <c r="D101">
+        <v>0.005805459003006798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
